--- a/csec/database/Economics data.xlsx
+++ b/csec/database/Economics data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -19,16 +19,58 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Economics June 2022 P032.pdf</t>
+  </si>
+  <si>
+    <t>1O5AWHgv-kEqwgvZ8DFbqEAhSGZPdAzmZ</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2021 P032.pdf</t>
+  </si>
+  <si>
+    <t>1IzN0at0IYBtMCUxNVsNyG6eTt41Xs5HG</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2019 P032.pdf</t>
+  </si>
+  <si>
+    <t>10_WQDtdYSO_CJlz4MinX0_uugErUDLPY</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1WC5UnrxA4CjDO3InmNY-gWceRTpqFxN5</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1j5yR7XutN5r75q7cOp4qVE9B5LhZEeOh</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1qIeKnfF7iSvT44BnKQGKiOC6NJsu0-t-</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2018 P032.pdf</t>
+  </si>
+  <si>
+    <t>1BRIEan5SUGCxc8nvGdG7RWdyqXRj2h_n</t>
+  </si>
+  <si>
+    <t>CSEC Economics June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1yTC50TtlWpFD0ScmI75vZhIDDwTGKqrP</t>
+  </si>
+  <si>
     <t>CSEC Economics June 2017 P2.pdf</t>
   </si>
   <si>
     <t>1mQtHTUmPmKL8u_C3a9WKCoiBUnvCUek_</t>
-  </si>
-  <si>
-    <t>CSEC Economics June 2017 P2(1).pdf</t>
-  </si>
-  <si>
-    <t>1dUAL13mn5s7AybNBhQEQHBYFNEuS83cO</t>
   </si>
   <si>
     <t>CSEC Economics June 2016 P032.pdf</t>
@@ -589,6 +631,62 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
